--- a/data/trans_bre/P16A_n_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A_n_R2-Edad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>5.664442045679067</v>
+        <v>5.80795600953542</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.841447303751933</v>
+        <v>7.181332841841551</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.921190073835196</v>
+        <v>3.417520557107417</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.918619891628229</v>
+        <v>-1.289255008500107</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>1.565001495564949</v>
+        <v>1.534947822436209</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9749005342425432</v>
+        <v>0.9873959592508048</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6750676250294134</v>
+        <v>0.5785616648281023</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1590739830438005</v>
+        <v>-0.141574610760543</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>11.76252209615568</v>
+        <v>12.07693941977853</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>14.79020859891387</v>
+        <v>15.2596291473419</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.75380565646503</v>
+        <v>10.5700134964087</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12.92983899992621</v>
+        <v>12.8164986766085</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>8.326232334531698</v>
+        <v>7.599154065870858</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3.951769698385413</v>
+        <v>3.958129208035654</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>4.523551990192</v>
+        <v>4.749121637370535</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2.295777096777983</v>
+        <v>1.944362194306951</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>7.067840566625148</v>
+        <v>7.354806438685045</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>6.512249107837159</v>
+        <v>6.191473695079464</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3.333763840938646</v>
+        <v>3.204626853834421</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.3081829477559966</v>
+        <v>-0.6720004395492242</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>1.471450455753306</v>
+        <v>1.457944628539442</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5638434016970637</v>
+        <v>0.4991731110995878</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3459785940065676</v>
+        <v>0.3554283371238853</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.03564210468791169</v>
+        <v>-0.04458270073330971</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>13.44303249003575</v>
+        <v>13.78542783581537</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>15.08007493362115</v>
+        <v>14.61683730630284</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>10.6487169519499</v>
+        <v>10.43684432287663</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10.11938815999934</v>
+        <v>10.17736358607101</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>4.743379606002869</v>
+        <v>4.811616128708113</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.812254025018204</v>
+        <v>1.763665760854439</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.709055103332905</v>
+        <v>1.741053240855047</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.036025626869001</v>
+        <v>1.054758227509026</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.744270766487314</v>
+        <v>2.631186475725821</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>7.20481712560162</v>
+        <v>7.644596090794384</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.835954905709553</v>
+        <v>3.731196905081432</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.604130804361307</v>
+        <v>3.951576006709886</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2868558404277186</v>
+        <v>0.2477391073287724</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4806423539872696</v>
+        <v>0.4996142787453405</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3076581182581818</v>
+        <v>0.3114609977701641</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.2119934266336847</v>
+        <v>0.2218308902487026</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.677325853362126</v>
+        <v>10.00601343939714</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>15.99589896507366</v>
+        <v>16.24091182200569</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11.2337654678159</v>
+        <v>11.26441562831453</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12.29002825239939</v>
+        <v>11.70360288845966</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.390361653202435</v>
+        <v>1.477172147465429</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.474939955559198</v>
+        <v>1.538700376925425</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.291101287391846</v>
+        <v>1.35378252878496</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.016972421967411</v>
+        <v>0.9743401304007788</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>8.260142299413248</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7.138930428591578</v>
+        <v>7.138930428591584</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5331495720136157</v>
@@ -949,7 +949,7 @@
         <v>0.4320275222278189</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.2687538516918828</v>
+        <v>0.268753851691883</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.939931392717412</v>
+        <v>3.352850383807815</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>10.61642544900484</v>
+        <v>10.06423627784859</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.333013976634404</v>
+        <v>3.483330936986853</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.729066930139803</v>
+        <v>2.745282708979727</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1654968372775929</v>
+        <v>0.188918446064068</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5347542669352211</v>
+        <v>0.5166445111707507</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1518812445637608</v>
+        <v>0.1636746523553684</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.09034534703136655</v>
+        <v>0.0941575775858295</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>12.70182790197125</v>
+        <v>13.35816990365554</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>20.5765794366405</v>
+        <v>20.33321043788344</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>13.34234500420382</v>
+        <v>12.88823743096745</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>11.66117858144556</v>
+        <v>11.17921577087018</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.025294021719128</v>
+        <v>1.073572410357455</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.346042760257038</v>
+        <v>1.340404741735436</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7746232683224368</v>
+        <v>0.7676402628132747</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4869875241452939</v>
+        <v>0.4725348598524967</v>
       </c>
     </row>
     <row r="16">
@@ -1049,7 +1049,7 @@
         <v>0.511630892045364</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.2586382837746853</v>
+        <v>0.2586382837746854</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.242260371648848</v>
+        <v>4.106467274417418</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>9.182095738030396</v>
+        <v>8.923056957130155</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>11.27718027651595</v>
+        <v>11.13093613832198</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5.674522104439911</v>
+        <v>5.219519107681187</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.08527891566478608</v>
+        <v>0.1107474815106019</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2045455061014731</v>
+        <v>0.1991418103288868</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2876477538308349</v>
+        <v>0.2900819121605053</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.1298727625206418</v>
+        <v>0.1193942917477721</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>16.76063342573898</v>
+        <v>17.15697572132103</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>22.65436517690589</v>
+        <v>22.68254123231674</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>23.83105178411448</v>
+        <v>24.18880647804023</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>15.52922006755777</v>
+        <v>15.65075281348358</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.5534263918146191</v>
+        <v>0.5567423727120737</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6073630722793559</v>
+        <v>0.61374803088105</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7513361148426333</v>
+        <v>0.7918324754929231</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.4145592359932661</v>
+        <v>0.409937297433446</v>
       </c>
     </row>
     <row r="19">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>12.97878020707167</v>
+        <v>13.55050924798062</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1442963788948236</v>
+        <v>-0.5287673544142635</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4.332261891974707</v>
+        <v>5.02984021094364</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>9.425432688631677</v>
+        <v>9.490991562618239</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.2604349781768879</v>
+        <v>0.2770183539431113</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.002572005520593227</v>
+        <v>-0.005678786497172231</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07711254422705661</v>
+        <v>0.0922992426926673</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1732474483589186</v>
+        <v>0.1705351311573758</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>27.78693145779349</v>
+        <v>28.38866257662052</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>15.40504743052913</v>
+        <v>14.59098434224522</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>18.91169561984297</v>
+        <v>19.41406420475713</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>19.99695687498911</v>
+        <v>20.02201640971762</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.6944588873925183</v>
+        <v>0.718865984517708</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2463984183310319</v>
+        <v>0.2374808975896309</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3903153724719745</v>
+        <v>0.4034055711514331</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.4146584061521589</v>
+        <v>0.4129714876647116</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>5.833709220118455</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>12.75333682511662</v>
+        <v>12.75333682511661</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1131778763270396</v>
@@ -1249,7 +1249,7 @@
         <v>0.08120069695189944</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.1877980900362661</v>
+        <v>0.1877980900362659</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.5729186476482167</v>
+        <v>-1.638540403995336</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.216418952504617</v>
+        <v>1.74386353546368</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.069889160489786</v>
+        <v>-0.8656539632546438</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6.86461696953404</v>
+        <v>7.488378460932621</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.007586482627594433</v>
+        <v>-0.02326731397353781</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01506365641437215</v>
+        <v>0.02059652026390107</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.01384183682992403</v>
+        <v>-0.01164741100316388</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.09432292970190972</v>
+        <v>0.103710673192441</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>15.79646452472647</v>
+        <v>15.59362274377999</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>14.33184703231877</v>
+        <v>14.94676703781659</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>12.74596050626079</v>
+        <v>12.95204860233379</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>17.89127385298648</v>
+        <v>17.70329292333802</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.2641327083520644</v>
+        <v>0.2598631946415882</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1924601426749047</v>
+        <v>0.198994159573603</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1878661206266554</v>
+        <v>0.1947823574395687</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.2766155474271018</v>
+        <v>0.2791147440578174</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>11.86054887031918</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>10.81819443988607</v>
+        <v>10.81819443988606</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.7058846547349035</v>
@@ -1349,7 +1349,7 @@
         <v>0.516824172411681</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.3651769577316733</v>
+        <v>0.3651769577316729</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>10.16188233719176</v>
+        <v>10.23889058916731</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>12.67089030022892</v>
+        <v>12.39226578777334</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>9.624203744394165</v>
+        <v>9.625889667303126</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>8.57750254593391</v>
+        <v>8.784766303800041</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.5535379614622813</v>
+        <v>0.5603435707946853</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4761297536630178</v>
+        <v>0.4648462225806367</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3986000940702745</v>
+        <v>0.4056987177459561</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.2751264809482274</v>
+        <v>0.286597139811078</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>14.23762231606501</v>
+        <v>14.31309110133251</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>16.99430887716425</v>
+        <v>17.19280705209707</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>14.22587762900643</v>
+        <v>13.97954277316719</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>12.77333588060637</v>
+        <v>12.82075922100675</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.8739907865159598</v>
+        <v>0.8673580734810314</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.709580481732678</v>
+        <v>0.7147960926917554</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6411376141005697</v>
+        <v>0.6365925248251281</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.4472201595848452</v>
+        <v>0.4511017236849507</v>
       </c>
     </row>
     <row r="28">
